--- a/cities-links2.xlsx
+++ b/cities-links2.xlsx
@@ -3527,8 +3527,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3552,15 +3554,17 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3838,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4999,7 +5003,7 @@
         <v>http://minneapolis.craigslist.org</v>
       </c>
       <c r="G48" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -5449,7 +5453,7 @@
         <v>http://minneapolis.craigslist.org</v>
       </c>
       <c r="G67" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -7441,7 +7445,7 @@
         <v>http://siouxfalls.craigslist.org</v>
       </c>
       <c r="G150" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17" x14ac:dyDescent="0.2">
